--- a/meta/15-4-1.xlsx
+++ b/meta/15-4-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">15.4 К 2030 году обеспечить сохранение горных экосистем, в том числе их биоразнообразия, для того чтобы повысить их способность давать блага, необходимые для устойчивого развития </t>
   </si>
   <si>
-    <t>15.4.1 Доля охраняемых районов среди важных для горного биоразнообразия участков</t>
-  </si>
-  <si>
     <t xml:space="preserve">ГАООСЛХ, Департамент сохранения биоразнообразия и особо охраняемых природных территорий </t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io                                                                                                  Индикатор сформирован согласно Руководству ЕЭК ООН «Экологические показатели и основанные на них оценочные доклады», и методологии показателей ЦУР, исходя из имеющихся данных и проведенных консультациях.</t>
+  </si>
+  <si>
+    <t>15.4.1 Доля важных с точки зрения биологического разнообразия горных районов, находящихся под охраной</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
